--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Documents\Courseworks\PC programming\RGB_ProcessingWin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\OneDrive\Dokumente\PC programming\RGB_ProcessingWin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB05548B-3D7D-4D7D-9871-E1F39D334F9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FB05548B-3D7D-4D7D-9871-E1F39D334F9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{577645D5-AD07-433C-85FB-983700C1BC21}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{9B091C69-7531-4507-B5CA-B3EC2FFDF4D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{9B091C69-7531-4507-B5CA-B3EC2FFDF4D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -6781,15 +6781,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200023</xdr:colOff>
+      <xdr:colOff>91166</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>39460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>593951</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>148998</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7116,8 +7116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA852A02-7DE5-4E95-989B-DD59E23E82E3}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C52" sqref="A1:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7695,8 +7695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD0417C-3CC4-4EE5-8F8C-52C41BBB24CC}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C52" sqref="A1:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8274,8 +8274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ECFAD1-F330-41B1-8AC0-C42312E3B7C1}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:C52"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C52" sqref="A1:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8853,8 +8853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C438D5BD-1260-47B6-86F1-4C5CFFC16ECE}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:C52"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C52" sqref="A1:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9432,8 +9432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D6F541-171E-4FA7-B666-A7924330A833}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:C52"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C52" sqref="A1:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10011,8 +10011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570535F6-83DB-4C53-AF5E-CCE4F8D564D0}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10190,8 +10190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF2873C-B462-456D-B88C-74E041FC7FC1}">
   <dimension ref="A1:CB50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
